--- a/PointsTiming/التجمع/Daily/تجمع يوم 8-9-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 8-9-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -2196,7 +2196,6 @@
     <xf numFmtId="179" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2219,6 +2218,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,7 +2707,7 @@
       <c r="D6" s="114"/>
       <c r="E6" s="114"/>
       <c r="F6" s="80"/>
-      <c r="H6" s="87"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" ht="18.5" spans="1:6">
       <c r="A7" s="80" t="s">
@@ -3253,7 +3255,7 @@
       <c r="F10" s="81">
         <v>0.364583333333334</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" ht="18.5" spans="1:7">
       <c r="A11" s="80" t="s">
@@ -3262,8 +3264,8 @@
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="81">
         <v>0.375</v>
       </c>
@@ -3320,7 +3322,7 @@
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
-      <c r="F15" s="83">
+      <c r="F15" s="82">
         <v>0.53125</v>
       </c>
       <c r="G15" s="81">
@@ -3340,7 +3342,7 @@
       <c r="E16" s="81">
         <v>0.569444444444444</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <v>0.572916666666667</v>
       </c>
       <c r="G16" s="81"/>
@@ -3353,7 +3355,7 @@
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="81"/>
     </row>
     <row r="18" ht="18.5" spans="1:7">
@@ -3395,7 +3397,7 @@
       </c>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="83"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" ht="18.5" spans="1:7">
       <c r="A21" s="80" t="s">
@@ -4426,7 +4428,7 @@
   <sheetPr/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A10" sqref="$A10:$XFD12"/>
@@ -10945,10 +10947,10 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -10966,7 +10968,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:7">
-      <c r="A1" s="89">
+      <c r="A1" s="88">
         <v>45878</v>
       </c>
       <c r="B1" s="74"/>
@@ -11098,7 +11100,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" ht="15.5" spans="1:7">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="15"/>
@@ -11223,11 +11225,11 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="15">
-        <v>0.868055555555556</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="90">
+        <v>0.871527777777778</v>
+      </c>
     </row>
     <row r="21" ht="15.5" spans="1:7">
       <c r="A21" s="33" t="s">
@@ -11307,12 +11309,12 @@
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="20"/>
@@ -11404,13 +11406,13 @@
       <c r="E10" s="34">
         <v>0.361111111111111</v>
       </c>
-      <c r="G10" s="87"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" ht="15.5" spans="1:5">
       <c r="A11" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
